--- a/Student Files/SC5-Data.xlsx
+++ b/Student Files/SC5-Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gself\Desktop\Excel 365 Exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9176E6-0038-4B88-BA77-D85F9060CC1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8445"/>
+    <workbookView xWindow="1950" yWindow="1740" windowWidth="19395" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales" sheetId="1" r:id="rId1"/>
@@ -462,7 +463,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -506,18 +507,12 @@
       <family val="5"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -545,7 +540,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -558,16 +553,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -599,7 +597,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Image result for detergent free clipart"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Image result for detergent free clipart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -904,11 +908,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,7 +921,7 @@
     <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -925,13 +929,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -949,7 +953,7 @@
       <c r="E3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="15" t="s">
         <v>128</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -985,13 +989,13 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G4">
         <v>117</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <v>42591</v>
       </c>
       <c r="K4" s="4"/>
@@ -1013,13 +1017,13 @@
       <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G5">
         <v>73</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="12">
         <v>42557</v>
       </c>
       <c r="K5" s="4"/>
@@ -1041,13 +1045,13 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G6">
         <v>205</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="12">
         <v>42600</v>
       </c>
       <c r="K6" s="4"/>
@@ -1069,13 +1073,13 @@
       <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G7">
         <v>14</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="12">
         <v>42587</v>
       </c>
       <c r="K7" s="4"/>
@@ -1097,13 +1101,13 @@
       <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G8">
         <v>170</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="12">
         <v>42587</v>
       </c>
       <c r="K8" s="4"/>
@@ -1125,13 +1129,13 @@
       <c r="E9" t="s">
         <v>23</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G9">
         <v>129</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="12">
         <v>42562</v>
       </c>
     </row>
@@ -1151,13 +1155,13 @@
       <c r="E10" t="s">
         <v>26</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G10">
         <v>82</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="12">
         <v>42563</v>
       </c>
     </row>
@@ -1177,13 +1181,13 @@
       <c r="E11" t="s">
         <v>23</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="14" t="s">
         <v>30</v>
       </c>
       <c r="G11">
         <v>116</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="12">
         <v>42524</v>
       </c>
     </row>
@@ -1203,13 +1207,13 @@
       <c r="E12" t="s">
         <v>34</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G12">
         <v>67</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="12">
         <v>42528</v>
       </c>
     </row>
@@ -1229,13 +1233,13 @@
       <c r="E13" t="s">
         <v>34</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G13">
         <v>125</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="12">
         <v>42578</v>
       </c>
       <c r="J13" s="11"/>
@@ -1256,13 +1260,13 @@
       <c r="E14" t="s">
         <v>11</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G14">
         <v>71</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="12">
         <v>42582</v>
       </c>
     </row>
@@ -1282,13 +1286,13 @@
       <c r="E15" t="s">
         <v>16</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G15">
         <v>22</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="12">
         <v>42595</v>
       </c>
     </row>
@@ -1308,13 +1312,13 @@
       <c r="E16" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="16" t="s">
         <v>7</v>
       </c>
       <c r="G16">
         <v>153</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="12">
         <v>42604</v>
       </c>
     </row>
@@ -1334,13 +1338,13 @@
       <c r="E17" t="s">
         <v>13</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G17">
         <v>141</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="12">
         <v>42555</v>
       </c>
     </row>
@@ -1360,13 +1364,13 @@
       <c r="E18" t="s">
         <v>47</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G18">
         <v>65</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="12">
         <v>42583</v>
       </c>
     </row>
@@ -1386,13 +1390,13 @@
       <c r="E19" t="s">
         <v>6</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G19">
         <v>157</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="12">
         <v>42563</v>
       </c>
     </row>
@@ -1412,13 +1416,13 @@
       <c r="E20" t="s">
         <v>52</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G20">
         <v>197</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="12">
         <v>42606</v>
       </c>
     </row>
@@ -1438,13 +1442,13 @@
       <c r="E21" t="s">
         <v>23</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G21">
         <v>10</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="12">
         <v>42542</v>
       </c>
     </row>
@@ -1464,13 +1468,13 @@
       <c r="E22" t="s">
         <v>34</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G22">
         <v>30</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="12">
         <v>42524</v>
       </c>
     </row>
@@ -1490,13 +1494,13 @@
       <c r="E23" t="s">
         <v>59</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G23">
         <v>134</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="12">
         <v>42564</v>
       </c>
     </row>
@@ -1516,13 +1520,13 @@
       <c r="E24" t="s">
         <v>26</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G24">
         <v>100</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="12">
         <v>42603</v>
       </c>
     </row>
@@ -1542,13 +1546,13 @@
       <c r="E25" t="s">
         <v>52</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G25">
         <v>142</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="12">
         <v>42545</v>
       </c>
     </row>
@@ -1568,13 +1572,13 @@
       <c r="E26" t="s">
         <v>66</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G26">
         <v>135</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="12">
         <v>42538</v>
       </c>
     </row>
@@ -1594,13 +1598,13 @@
       <c r="E27" t="s">
         <v>59</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G27">
         <v>9</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="12">
         <v>42575</v>
       </c>
     </row>
@@ -1620,13 +1624,13 @@
       <c r="E28" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="17" t="s">
         <v>7</v>
       </c>
       <c r="G28">
         <v>69</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="12">
         <v>42590</v>
       </c>
     </row>
@@ -1646,13 +1650,13 @@
       <c r="E29" t="s">
         <v>66</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="14" t="s">
         <v>30</v>
       </c>
       <c r="G29">
         <v>189</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="12">
         <v>42538</v>
       </c>
     </row>
@@ -1672,13 +1676,13 @@
       <c r="E30" t="s">
         <v>16</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G30">
         <v>141</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="12">
         <v>42536</v>
       </c>
     </row>
@@ -1698,13 +1702,13 @@
       <c r="E31" t="s">
         <v>52</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G31">
         <v>166</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="12">
         <v>42584</v>
       </c>
     </row>
@@ -1724,13 +1728,13 @@
       <c r="E32" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="17" t="s">
         <v>7</v>
       </c>
       <c r="G32">
         <v>170</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="12">
         <v>42593</v>
       </c>
     </row>
@@ -1750,13 +1754,13 @@
       <c r="E33" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="17" t="s">
         <v>7</v>
       </c>
       <c r="G33">
         <v>199</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="12">
         <v>42600</v>
       </c>
     </row>
@@ -1776,13 +1780,13 @@
       <c r="E34" t="s">
         <v>52</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G34">
         <v>73</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="12">
         <v>42554</v>
       </c>
     </row>
@@ -1802,13 +1806,13 @@
       <c r="E35" t="s">
         <v>6</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G35">
         <v>117</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H35" s="12">
         <v>42551</v>
       </c>
     </row>
@@ -1828,13 +1832,13 @@
       <c r="E36" t="s">
         <v>13</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G36">
         <v>160</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="12">
         <v>42543</v>
       </c>
     </row>
@@ -1854,13 +1858,13 @@
       <c r="E37" t="s">
         <v>6</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G37">
         <v>45</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="12">
         <v>42530</v>
       </c>
     </row>
@@ -1880,13 +1884,13 @@
       <c r="E38" t="s">
         <v>52</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="14" t="s">
         <v>30</v>
       </c>
       <c r="G38">
         <v>37</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="12">
         <v>42529</v>
       </c>
     </row>
@@ -1906,13 +1910,13 @@
       <c r="E39" t="s">
         <v>13</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G39">
         <v>135</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="12">
         <v>42594</v>
       </c>
     </row>
@@ -1932,13 +1936,13 @@
       <c r="E40" t="s">
         <v>66</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G40">
         <v>12</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="12">
         <v>42579</v>
       </c>
     </row>
@@ -1958,13 +1962,13 @@
       <c r="E41" t="s">
         <v>19</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G41">
         <v>104</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="12">
         <v>42548</v>
       </c>
     </row>
@@ -1984,13 +1988,13 @@
       <c r="E42" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="17" t="s">
         <v>7</v>
       </c>
       <c r="G42">
         <v>167</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="12">
         <v>42558</v>
       </c>
     </row>
@@ -2010,13 +2014,13 @@
       <c r="E43" t="s">
         <v>34</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G43">
         <v>108</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43" s="12">
         <v>42570</v>
       </c>
     </row>
@@ -2036,13 +2040,13 @@
       <c r="E44" t="s">
         <v>47</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G44">
         <v>105</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="12">
         <v>42578</v>
       </c>
     </row>
@@ -2062,13 +2066,13 @@
       <c r="E45" t="s">
         <v>52</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G45">
         <v>176</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45" s="12">
         <v>42599</v>
       </c>
     </row>
@@ -2088,13 +2092,13 @@
       <c r="E46" t="s">
         <v>19</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G46">
         <v>131</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46" s="12">
         <v>42522</v>
       </c>
     </row>
@@ -2114,13 +2118,13 @@
       <c r="E47" t="s">
         <v>13</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G47">
         <v>188</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="12">
         <v>42608</v>
       </c>
     </row>
@@ -2140,13 +2144,13 @@
       <c r="E48" t="s">
         <v>11</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="14" t="s">
         <v>30</v>
       </c>
       <c r="G48">
         <v>93</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H48" s="12">
         <v>42529</v>
       </c>
     </row>
@@ -2166,13 +2170,13 @@
       <c r="E49" t="s">
         <v>26</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G49">
         <v>113</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="12">
         <v>42555</v>
       </c>
     </row>
@@ -2192,13 +2196,13 @@
       <c r="E50" t="s">
         <v>23</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G50">
         <v>112</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H50" s="12">
         <v>42560</v>
       </c>
     </row>
@@ -2218,13 +2222,13 @@
       <c r="E51" t="s">
         <v>19</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G51">
         <v>201</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H51" s="12">
         <v>42544</v>
       </c>
     </row>
@@ -2244,13 +2248,13 @@
       <c r="E52" t="s">
         <v>16</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="14" t="s">
         <v>30</v>
       </c>
       <c r="G52">
         <v>41</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H52" s="12">
         <v>42538</v>
       </c>
     </row>
@@ -2265,12 +2269,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
